--- a/ESTUDOS/ADVPL do Básico ao Avançado/MATERIAL DE LEITURA/Documentação+Instalação.xlsx
+++ b/ESTUDOS/ADVPL do Básico ao Avançado/MATERIAL DE LEITURA/Documentação+Instalação.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Paulo\Udemy\Curso instalação\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rogério\Documents\Workspace\ESTUDOS\ADVPL do Básico ao Avançado\MATERIAL DE LEITURA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B322566F-E8C4-4390-9668-34B12536620D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7BA99DEB-0BB1-4130-B95C-A5A6CA172D43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Principal" sheetId="1" r:id="rId1"/>
@@ -352,7 +352,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -377,10 +377,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1062,22 +1061,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="34.77734375" customWidth="1"/>
-    <col min="2" max="2" width="24.109375" customWidth="1"/>
-    <col min="3" max="3" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="34.81640625" customWidth="1"/>
+    <col min="2" max="2" width="24.08984375" customWidth="1"/>
+    <col min="3" max="3" width="14.90625" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="5" max="5" width="14.77734375" customWidth="1"/>
-    <col min="6" max="7" width="12.21875" customWidth="1"/>
-    <col min="8" max="8" width="19.21875" customWidth="1"/>
+    <col min="5" max="5" width="14.81640625" customWidth="1"/>
+    <col min="6" max="7" width="12.1796875" customWidth="1"/>
+    <col min="8" max="8" width="19.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>17</v>
       </c>
@@ -1103,7 +1102,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>18</v>
       </c>
@@ -1121,7 +1120,7 @@
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -1137,7 +1136,7 @@
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>29</v>
       </c>
@@ -1153,7 +1152,7 @@
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
@@ -1169,7 +1168,7 @@
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>50</v>
       </c>
@@ -1185,7 +1184,7 @@
       <c r="G6" s="11"/>
       <c r="H6" s="9"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
@@ -1203,7 +1202,7 @@
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
@@ -1223,7 +1222,7 @@
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
@@ -1243,7 +1242,7 @@
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="2"/>
       <c r="B10" s="1"/>
       <c r="C10" s="8"/>
@@ -1253,7 +1252,7 @@
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>1</v>
       </c>
@@ -1271,7 +1270,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>6</v>
       </c>
@@ -1291,7 +1290,7 @@
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>22</v>
       </c>
@@ -1311,7 +1310,7 @@
       </c>
       <c r="H13" s="9"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>28</v>
       </c>
@@ -1327,7 +1326,7 @@
       </c>
       <c r="H14" s="9"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
       <c r="B15" s="1"/>
       <c r="C15" s="8"/>
@@ -1337,7 +1336,7 @@
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
@@ -1353,7 +1352,7 @@
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
@@ -1373,7 +1372,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="2"/>
       <c r="B18" s="1"/>
       <c r="C18" s="8"/>
@@ -1383,7 +1382,7 @@
       <c r="G18" s="11"/>
       <c r="H18" s="9"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="6" t="s">
         <v>25</v>
       </c>
@@ -1395,7 +1394,7 @@
       <c r="G19" s="11"/>
       <c r="H19" s="11"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
         <v>26</v>
       </c>
@@ -1407,7 +1406,7 @@
       <c r="G20" s="11"/>
       <c r="H20" s="11"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="12" t="s">
         <v>30</v>
       </c>
@@ -1421,7 +1420,7 @@
       <c r="G22" s="12"/>
       <c r="H22" s="12"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1431,12 +1430,12 @@
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="12" t="s">
         <v>31</v>
       </c>
       <c r="B24" s="12">
-        <v>1239</v>
+        <v>1235</v>
       </c>
       <c r="C24" s="12"/>
       <c r="D24" s="12"/>
@@ -1445,12 +1444,12 @@
       <c r="G24" s="12"/>
       <c r="H24" s="12"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B25" s="1">
-        <v>1240</v>
+        <v>1246</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1459,12 +1458,12 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="12" t="s">
         <v>33</v>
       </c>
       <c r="B26" s="12">
-        <v>1238</v>
+        <v>1234</v>
       </c>
       <c r="C26" s="12"/>
       <c r="D26" s="12"/>
@@ -1479,20 +1478,20 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="13" t="s">
         <v>34</v>
       </c>
       <c r="B27" s="13">
-        <v>1241</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="14" t="s">
         <v>38</v>
       </c>
       <c r="B28" s="14">
-        <v>1242</v>
+        <v>1231</v>
       </c>
       <c r="F28" t="s">
         <v>13</v>
@@ -1504,7 +1503,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>17</v>
       </c>
@@ -1530,7 +1529,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>46</v>
       </c>
@@ -1544,7 +1543,7 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>47</v>
       </c>
@@ -1562,7 +1561,7 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>48</v>
       </c>
@@ -1576,11 +1575,11 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B34" s="15" t="s">
+      <c r="B34" s="12" t="s">
         <v>7</v>
       </c>
       <c r="C34" s="1"/>

--- a/ESTUDOS/ADVPL do Básico ao Avançado/MATERIAL DE LEITURA/Documentação+Instalação.xlsx
+++ b/ESTUDOS/ADVPL do Básico ao Avançado/MATERIAL DE LEITURA/Documentação+Instalação.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rogério\Documents\Workspace\ESTUDOS\ADVPL do Básico ao Avançado\MATERIAL DE LEITURA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7BA99DEB-0BB1-4130-B95C-A5A6CA172D43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADA1E53E-287F-4533-96B4-EBDD2CDD3F0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="52">
   <si>
     <t>Local instalação MSSQL</t>
   </si>
@@ -117,15 +117,9 @@
     <t>Senha usuário Proprietario (sa)</t>
   </si>
   <si>
-    <t>ip ctreeserver</t>
-  </si>
-  <si>
     <t>server master</t>
   </si>
   <si>
-    <t>server broker</t>
-  </si>
-  <si>
     <t>Porta TCP Server Protheus slave</t>
   </si>
   <si>
@@ -181,6 +175,12 @@
   </si>
   <si>
     <t>WIN-50H5L2LMD3T</t>
+  </si>
+  <si>
+    <t>broker</t>
+  </si>
+  <si>
+    <t>localhost</t>
   </si>
 </sst>
 </file>
@@ -352,7 +352,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -380,6 +380,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -780,8 +781,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AD163ABA-BE79-4361-A5A7-C339D1982E3D}" name="Tabela2" displayName="Tabela2" ref="A30:H34" totalsRowShown="0">
-  <autoFilter ref="A30:H34" xr:uid="{AD163ABA-BE79-4361-A5A7-C339D1982E3D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AD163ABA-BE79-4361-A5A7-C339D1982E3D}" name="Tabela2" displayName="Tabela2" ref="A28:H32" totalsRowShown="0">
+  <autoFilter ref="A28:H32" xr:uid="{AD163ABA-BE79-4361-A5A7-C339D1982E3D}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{D0EE4E71-1F3D-4FEE-879A-D966333AE1C2}" name="Colunas1" dataDxfId="7"/>
     <tableColumn id="2" xr3:uid="{1A16F527-CDBC-43C7-8271-74963AE479ED}" name="Colunas2" dataDxfId="6"/>
@@ -1059,10 +1060,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1107,7 +1108,7 @@
         <v>18</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
@@ -1125,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>13</v>
@@ -1157,7 +1158,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8" t="s">
@@ -1170,10 +1171,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="8" t="s">
@@ -1407,134 +1408,146 @@
       <c r="H20" s="11"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A23" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
+      <c r="B23" s="12">
+        <v>1235</v>
+      </c>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="12" t="s">
         <v>31</v>
       </c>
       <c r="B24" s="12">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="C24" s="12"/>
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
+      <c r="F24" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" s="12" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="1">
-        <v>1246</v>
-      </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
+      <c r="B25" s="13">
+        <v>1233</v>
+      </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A26" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B26" s="12">
-        <v>1234</v>
-      </c>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G26" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H26" s="12" t="s">
+      <c r="A26" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" s="14">
+        <v>1231</v>
+      </c>
+      <c r="F26" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" t="s">
+        <v>13</v>
+      </c>
+      <c r="H26" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A27" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="B27" s="13">
-        <v>1233</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A28" s="14" t="s">
+      <c r="A27" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" s="15">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="14">
-        <v>1231</v>
+      <c r="D28" t="s">
+        <v>39</v>
+      </c>
+      <c r="E28" t="s">
+        <v>40</v>
       </c>
       <c r="F28" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="G28" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="H28" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>17</v>
-      </c>
-      <c r="B30" t="s">
-        <v>39</v>
-      </c>
-      <c r="C30" t="s">
-        <v>40</v>
-      </c>
-      <c r="D30" t="s">
-        <v>41</v>
-      </c>
-      <c r="E30" t="s">
-        <v>42</v>
-      </c>
-      <c r="F30" t="s">
         <v>43</v>
       </c>
-      <c r="G30" t="s">
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="H30" t="s">
+      <c r="B29" s="1">
+        <v>2234</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
         <v>45</v>
       </c>
+      <c r="B30" s="1">
+        <v>5555</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B31" s="1">
-        <v>2234</v>
+        <v>4321</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1547,8 +1560,8 @@
       <c r="A32" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B32" s="1">
-        <v>5555</v>
+      <c r="B32" s="12" t="s">
+        <v>51</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1560,38 +1573,6 @@
       </c>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A33" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B33" s="1">
-        <v>8020</v>
-      </c>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A34" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B34" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
